--- a/TBEA/BusinessPerformance/Documentation/市场信息化/输变电2014年1-12月签约台帐(修改后).xlsx
+++ b/TBEA/BusinessPerformance/Documentation/市场信息化/输变电2014年1-12月签约台帐(修改后).xlsx
@@ -803,10 +803,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
